--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Efnb2-Pecam1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Efnb2-Pecam1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.1993297382896</v>
+        <v>31.910369</v>
       </c>
       <c r="H2">
-        <v>29.1993297382896</v>
+        <v>95.73110699999999</v>
       </c>
       <c r="I2">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="J2">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>200.098458342395</v>
+        <v>260.05794</v>
       </c>
       <c r="N2">
-        <v>200.098458342395</v>
+        <v>780.17382</v>
       </c>
       <c r="O2">
-        <v>0.9050577646396665</v>
+        <v>0.9183237679872462</v>
       </c>
       <c r="P2">
-        <v>0.9050577646396665</v>
+        <v>0.9183237679872462</v>
       </c>
       <c r="Q2">
-        <v>5842.740865262997</v>
+        <v>8298.544826779858</v>
       </c>
       <c r="R2">
-        <v>5842.740865262997</v>
+        <v>74686.90344101873</v>
       </c>
       <c r="S2">
-        <v>0.5151357666249144</v>
+        <v>0.532607742521738</v>
       </c>
       <c r="T2">
-        <v>0.5151357666249144</v>
+        <v>0.532607742521738</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.1993297382896</v>
+        <v>31.910369</v>
       </c>
       <c r="H3">
-        <v>29.1993297382896</v>
+        <v>95.73110699999999</v>
       </c>
       <c r="I3">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="J3">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.27784798767248</v>
+        <v>3.298516</v>
       </c>
       <c r="N3">
-        <v>3.27784798767248</v>
+        <v>9.895548</v>
       </c>
       <c r="O3">
-        <v>0.01482591019004837</v>
+        <v>0.011647810645144</v>
       </c>
       <c r="P3">
-        <v>0.01482591019004837</v>
+        <v>0.011647810645144</v>
       </c>
       <c r="Q3">
-        <v>95.71096422403777</v>
+        <v>105.256862712404</v>
       </c>
       <c r="R3">
-        <v>95.71096422403777</v>
+        <v>947.311764411636</v>
       </c>
       <c r="S3">
-        <v>0.008438529461932616</v>
+        <v>0.006755475954442434</v>
       </c>
       <c r="T3">
-        <v>0.008438529461932616</v>
+        <v>0.006755475954442433</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.1993297382896</v>
+        <v>31.910369</v>
       </c>
       <c r="H4">
-        <v>29.1993297382896</v>
+        <v>95.73110699999999</v>
       </c>
       <c r="I4">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="J4">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.39559791983389</v>
+        <v>5.199381666666667</v>
       </c>
       <c r="N4">
-        <v>4.39559791983389</v>
+        <v>15.598145</v>
       </c>
       <c r="O4">
-        <v>0.01988156260940442</v>
+        <v>0.01836019989751954</v>
       </c>
       <c r="P4">
-        <v>0.01988156260940442</v>
+        <v>0.01836019989751954</v>
       </c>
       <c r="Q4">
-        <v>128.3485130581696</v>
+        <v>165.9141875551683</v>
       </c>
       <c r="R4">
-        <v>128.3485130581696</v>
+        <v>1493.227687996515</v>
       </c>
       <c r="S4">
-        <v>0.01131607770977396</v>
+        <v>0.01064851521930938</v>
       </c>
       <c r="T4">
-        <v>0.01131607770977396</v>
+        <v>0.01064851521930938</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.1993297382896</v>
+        <v>31.910369</v>
       </c>
       <c r="H5">
-        <v>29.1993297382896</v>
+        <v>95.73110699999999</v>
       </c>
       <c r="I5">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="J5">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.9502827539055</v>
+        <v>5.482828</v>
       </c>
       <c r="N5">
-        <v>4.9502827539055</v>
+        <v>16.448484</v>
       </c>
       <c r="O5">
-        <v>0.0223904365915585</v>
+        <v>0.01936111340490499</v>
       </c>
       <c r="P5">
-        <v>0.0223904365915585</v>
+        <v>0.01936111340490499</v>
       </c>
       <c r="Q5">
-        <v>144.544938429055</v>
+        <v>174.959064643532</v>
       </c>
       <c r="R5">
-        <v>144.544938429055</v>
+        <v>1574.631581791788</v>
       </c>
       <c r="S5">
-        <v>0.01274406470978252</v>
+        <v>0.01122902320811653</v>
       </c>
       <c r="T5">
-        <v>0.01274406470978252</v>
+        <v>0.01122902320811653</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.1993297382896</v>
+        <v>31.910369</v>
       </c>
       <c r="H6">
-        <v>29.1993297382896</v>
+        <v>95.73110699999999</v>
       </c>
       <c r="I6">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="J6">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.49587591863598</v>
+        <v>5.580850666666667</v>
       </c>
       <c r="N6">
-        <v>5.49587591863598</v>
+        <v>16.742552</v>
       </c>
       <c r="O6">
-        <v>0.02485818838817005</v>
+        <v>0.01970725374809732</v>
       </c>
       <c r="P6">
-        <v>0.02485818838817005</v>
+        <v>0.01970725374809732</v>
       </c>
       <c r="Q6">
-        <v>160.4758931489772</v>
+        <v>178.0870041072293</v>
       </c>
       <c r="R6">
-        <v>160.4758931489772</v>
+        <v>1602.783036965064</v>
       </c>
       <c r="S6">
-        <v>0.01414864601194241</v>
+        <v>0.01142977705246865</v>
       </c>
       <c r="T6">
-        <v>0.01414864601194241</v>
+        <v>0.01142977705246865</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.1993297382896</v>
+        <v>31.910369</v>
       </c>
       <c r="H7">
-        <v>29.1993297382896</v>
+        <v>95.73110699999999</v>
       </c>
       <c r="I7">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="J7">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.87109421225211</v>
+        <v>3.568123</v>
       </c>
       <c r="N7">
-        <v>2.87109421225211</v>
+        <v>10.704369</v>
       </c>
       <c r="O7">
-        <v>0.01298613758115212</v>
+        <v>0.01259985431708779</v>
       </c>
       <c r="P7">
-        <v>0.01298613758115212</v>
+        <v>0.01259985431708779</v>
       </c>
       <c r="Q7">
-        <v>83.83402661324418</v>
+        <v>113.860121567387</v>
       </c>
       <c r="R7">
-        <v>83.83402661324418</v>
+        <v>1024.741094106483</v>
       </c>
       <c r="S7">
-        <v>0.007391377876335632</v>
+        <v>0.007307640505303902</v>
       </c>
       <c r="T7">
-        <v>0.007391377876335632</v>
+        <v>0.007307640505303901</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.1979107735191</v>
+        <v>11.420477</v>
       </c>
       <c r="H8">
-        <v>11.1979107735191</v>
+        <v>34.261431</v>
       </c>
       <c r="I8">
-        <v>0.218277779030783</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="J8">
-        <v>0.218277779030783</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>200.098458342395</v>
+        <v>260.05794</v>
       </c>
       <c r="N8">
-        <v>200.098458342395</v>
+        <v>780.17382</v>
       </c>
       <c r="O8">
-        <v>0.9050577646396665</v>
+        <v>0.9183237679872462</v>
       </c>
       <c r="P8">
-        <v>0.9050577646396665</v>
+        <v>0.9183237679872462</v>
       </c>
       <c r="Q8">
-        <v>2240.684682436868</v>
+        <v>2969.98572243738</v>
       </c>
       <c r="R8">
-        <v>2240.684682436868</v>
+        <v>26729.87150193642</v>
       </c>
       <c r="S8">
-        <v>0.1975539987601115</v>
+        <v>0.1906162374208656</v>
       </c>
       <c r="T8">
-        <v>0.1975539987601115</v>
+        <v>0.1906162374208656</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.1979107735191</v>
+        <v>11.420477</v>
       </c>
       <c r="H9">
-        <v>11.1979107735191</v>
+        <v>34.261431</v>
       </c>
       <c r="I9">
-        <v>0.218277779030783</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="J9">
-        <v>0.218277779030783</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.27784798767248</v>
+        <v>3.298516</v>
       </c>
       <c r="N9">
-        <v>3.27784798767248</v>
+        <v>9.895548</v>
       </c>
       <c r="O9">
-        <v>0.01482591019004837</v>
+        <v>0.011647810645144</v>
       </c>
       <c r="P9">
-        <v>0.01482591019004837</v>
+        <v>0.011647810645144</v>
       </c>
       <c r="Q9">
-        <v>36.70504929511556</v>
+        <v>37.670626112132</v>
       </c>
       <c r="R9">
-        <v>36.70504929511556</v>
+        <v>339.035635009188</v>
       </c>
       <c r="S9">
-        <v>0.003236166748393613</v>
+        <v>0.002417733175124452</v>
       </c>
       <c r="T9">
-        <v>0.003236166748393613</v>
+        <v>0.002417733175124451</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.1979107735191</v>
+        <v>11.420477</v>
       </c>
       <c r="H10">
-        <v>11.1979107735191</v>
+        <v>34.261431</v>
       </c>
       <c r="I10">
-        <v>0.218277779030783</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="J10">
-        <v>0.218277779030783</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.39559791983389</v>
+        <v>5.199381666666667</v>
       </c>
       <c r="N10">
-        <v>4.39559791983389</v>
+        <v>15.598145</v>
       </c>
       <c r="O10">
-        <v>0.01988156260940442</v>
+        <v>0.01836019989751954</v>
       </c>
       <c r="P10">
-        <v>0.01988156260940442</v>
+        <v>0.01836019989751954</v>
       </c>
       <c r="Q10">
-        <v>49.22151330256607</v>
+        <v>59.37941873838833</v>
       </c>
       <c r="R10">
-        <v>49.22151330256607</v>
+        <v>534.4147686454951</v>
       </c>
       <c r="S10">
-        <v>0.004339703330042255</v>
+        <v>0.003811022152275103</v>
       </c>
       <c r="T10">
-        <v>0.004339703330042255</v>
+        <v>0.003811022152275103</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.1979107735191</v>
+        <v>11.420477</v>
       </c>
       <c r="H11">
-        <v>11.1979107735191</v>
+        <v>34.261431</v>
       </c>
       <c r="I11">
-        <v>0.218277779030783</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="J11">
-        <v>0.218277779030783</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.9502827539055</v>
+        <v>5.482828</v>
       </c>
       <c r="N11">
-        <v>4.9502827539055</v>
+        <v>16.448484</v>
       </c>
       <c r="O11">
-        <v>0.0223904365915585</v>
+        <v>0.01936111340490499</v>
       </c>
       <c r="P11">
-        <v>0.0223904365915585</v>
+        <v>0.01936111340490499</v>
       </c>
       <c r="Q11">
-        <v>55.4328245819242</v>
+        <v>62.61651106895601</v>
       </c>
       <c r="R11">
-        <v>55.4328245819242</v>
+        <v>563.548599620604</v>
       </c>
       <c r="S11">
-        <v>0.004887334770734963</v>
+        <v>0.004018781521478523</v>
       </c>
       <c r="T11">
-        <v>0.004887334770734963</v>
+        <v>0.004018781521478522</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.1979107735191</v>
+        <v>11.420477</v>
       </c>
       <c r="H12">
-        <v>11.1979107735191</v>
+        <v>34.261431</v>
       </c>
       <c r="I12">
-        <v>0.218277779030783</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="J12">
-        <v>0.218277779030783</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.49587591863598</v>
+        <v>5.580850666666667</v>
       </c>
       <c r="N12">
-        <v>5.49587591863598</v>
+        <v>16.742552</v>
       </c>
       <c r="O12">
-        <v>0.02485818838817005</v>
+        <v>0.01970725374809732</v>
       </c>
       <c r="P12">
-        <v>0.02485818838817005</v>
+        <v>0.01970725374809732</v>
       </c>
       <c r="Q12">
-        <v>61.54232815921802</v>
+        <v>63.73597667910133</v>
       </c>
       <c r="R12">
-        <v>61.54232815921802</v>
+        <v>573.6237901119121</v>
       </c>
       <c r="S12">
-        <v>0.005425990152098558</v>
+        <v>0.004090629786914908</v>
       </c>
       <c r="T12">
-        <v>0.005425990152098558</v>
+        <v>0.004090629786914907</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.1979107735191</v>
+        <v>11.420477</v>
       </c>
       <c r="H13">
-        <v>11.1979107735191</v>
+        <v>34.261431</v>
       </c>
       <c r="I13">
-        <v>0.218277779030783</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="J13">
-        <v>0.218277779030783</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.87109421225211</v>
+        <v>3.568123</v>
       </c>
       <c r="N13">
-        <v>2.87109421225211</v>
+        <v>10.704369</v>
       </c>
       <c r="O13">
-        <v>0.01298613758115212</v>
+        <v>0.01259985431708779</v>
       </c>
       <c r="P13">
-        <v>0.01298613758115212</v>
+        <v>0.01259985431708779</v>
       </c>
       <c r="Q13">
-        <v>32.15025681116624</v>
+        <v>40.749666654671</v>
       </c>
       <c r="R13">
-        <v>32.15025681116624</v>
+        <v>366.746999892039</v>
       </c>
       <c r="S13">
-        <v>0.00283458526940207</v>
+        <v>0.00261534864467069</v>
       </c>
       <c r="T13">
-        <v>0.00283458526940207</v>
+        <v>0.002615348644670689</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.371096004150272</v>
+        <v>0.6836493333333333</v>
       </c>
       <c r="H14">
-        <v>0.371096004150272</v>
+        <v>2.050948</v>
       </c>
       <c r="I14">
-        <v>0.00723367181891409</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="J14">
-        <v>0.00723367181891409</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>200.098458342395</v>
+        <v>260.05794</v>
       </c>
       <c r="N14">
-        <v>200.098458342395</v>
+        <v>780.17382</v>
       </c>
       <c r="O14">
-        <v>0.9050577646396665</v>
+        <v>0.9183237679872462</v>
       </c>
       <c r="P14">
-        <v>0.9050577646396665</v>
+        <v>0.9183237679872462</v>
       </c>
       <c r="Q14">
-        <v>74.25573832749244</v>
+        <v>177.78843730904</v>
       </c>
       <c r="R14">
-        <v>74.25573832749244</v>
+        <v>1600.09593578136</v>
       </c>
       <c r="S14">
-        <v>0.006546890846563336</v>
+        <v>0.01141061477863693</v>
       </c>
       <c r="T14">
-        <v>0.006546890846563336</v>
+        <v>0.01141061477863693</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.371096004150272</v>
+        <v>0.6836493333333333</v>
       </c>
       <c r="H15">
-        <v>0.371096004150272</v>
+        <v>2.050948</v>
       </c>
       <c r="I15">
-        <v>0.00723367181891409</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="J15">
-        <v>0.00723367181891409</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.27784798767248</v>
+        <v>3.298516</v>
       </c>
       <c r="N15">
-        <v>3.27784798767248</v>
+        <v>9.895548</v>
       </c>
       <c r="O15">
-        <v>0.01482591019004837</v>
+        <v>0.011647810645144</v>
       </c>
       <c r="P15">
-        <v>0.01482591019004837</v>
+        <v>0.011647810645144</v>
       </c>
       <c r="Q15">
-        <v>1.216396290437267</v>
+        <v>2.255028264389333</v>
       </c>
       <c r="R15">
-        <v>1.216396290437267</v>
+        <v>20.295254379504</v>
       </c>
       <c r="S15">
-        <v>0.0001072457687315042</v>
+        <v>0.0001447296530041359</v>
       </c>
       <c r="T15">
-        <v>0.0001072457687315042</v>
+        <v>0.0001447296530041358</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.371096004150272</v>
+        <v>0.6836493333333333</v>
       </c>
       <c r="H16">
-        <v>0.371096004150272</v>
+        <v>2.050948</v>
       </c>
       <c r="I16">
-        <v>0.00723367181891409</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="J16">
-        <v>0.00723367181891409</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.39559791983389</v>
+        <v>5.199381666666667</v>
       </c>
       <c r="N16">
-        <v>4.39559791983389</v>
+        <v>15.598145</v>
       </c>
       <c r="O16">
-        <v>0.01988156260940442</v>
+        <v>0.01836019989751954</v>
       </c>
       <c r="P16">
-        <v>0.01988156260940442</v>
+        <v>0.01836019989751954</v>
       </c>
       <c r="Q16">
-        <v>1.631188823901604</v>
+        <v>3.554553810162222</v>
       </c>
       <c r="R16">
-        <v>1.631188823901604</v>
+        <v>31.99098429146</v>
       </c>
       <c r="S16">
-        <v>0.0001438166991636248</v>
+        <v>0.0002281343199343985</v>
       </c>
       <c r="T16">
-        <v>0.0001438166991636248</v>
+        <v>0.0002281343199343985</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.371096004150272</v>
+        <v>0.6836493333333333</v>
       </c>
       <c r="H17">
-        <v>0.371096004150272</v>
+        <v>2.050948</v>
       </c>
       <c r="I17">
-        <v>0.00723367181891409</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="J17">
-        <v>0.00723367181891409</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.9502827539055</v>
+        <v>5.482828</v>
       </c>
       <c r="N17">
-        <v>4.9502827539055</v>
+        <v>16.448484</v>
       </c>
       <c r="O17">
-        <v>0.0223904365915585</v>
+        <v>0.01936111340490499</v>
       </c>
       <c r="P17">
-        <v>0.0223904365915585</v>
+        <v>0.01936111340490499</v>
       </c>
       <c r="Q17">
-        <v>1.837030149388335</v>
+        <v>3.748331706981334</v>
       </c>
       <c r="R17">
-        <v>1.837030149388335</v>
+        <v>33.734985362832</v>
       </c>
       <c r="S17">
-        <v>0.0001619650701855395</v>
+        <v>0.0002405711519729965</v>
       </c>
       <c r="T17">
-        <v>0.0001619650701855395</v>
+        <v>0.0002405711519729964</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.371096004150272</v>
+        <v>0.6836493333333333</v>
       </c>
       <c r="H18">
-        <v>0.371096004150272</v>
+        <v>2.050948</v>
       </c>
       <c r="I18">
-        <v>0.00723367181891409</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="J18">
-        <v>0.00723367181891409</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.49587591863598</v>
+        <v>5.580850666666667</v>
       </c>
       <c r="N18">
-        <v>5.49587591863598</v>
+        <v>16.742552</v>
       </c>
       <c r="O18">
-        <v>0.02485818838817005</v>
+        <v>0.01970725374809732</v>
       </c>
       <c r="P18">
-        <v>0.02485818838817005</v>
+        <v>0.01970725374809732</v>
       </c>
       <c r="Q18">
-        <v>2.039497592711518</v>
+        <v>3.815344837699556</v>
       </c>
       <c r="R18">
-        <v>2.039497592711518</v>
+        <v>34.338103539296</v>
       </c>
       <c r="S18">
-        <v>0.0001798159768127632</v>
+        <v>0.0002448721123240169</v>
       </c>
       <c r="T18">
-        <v>0.0001798159768127632</v>
+        <v>0.0002448721123240169</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.371096004150272</v>
+        <v>0.6836493333333333</v>
       </c>
       <c r="H19">
-        <v>0.371096004150272</v>
+        <v>2.050948</v>
       </c>
       <c r="I19">
-        <v>0.00723367181891409</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="J19">
-        <v>0.00723367181891409</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.87109421225211</v>
+        <v>3.568123</v>
       </c>
       <c r="N19">
-        <v>2.87109421225211</v>
+        <v>10.704369</v>
       </c>
       <c r="O19">
-        <v>0.01298613758115212</v>
+        <v>0.01259985431708779</v>
       </c>
       <c r="P19">
-        <v>0.01298613758115212</v>
+        <v>0.01259985431708779</v>
       </c>
       <c r="Q19">
-        <v>1.065451589705731</v>
+        <v>2.439344910201333</v>
       </c>
       <c r="R19">
-        <v>1.065451589705731</v>
+        <v>21.954104191812</v>
       </c>
       <c r="S19">
-        <v>9.393745745732131E-05</v>
+        <v>0.0001565592538178006</v>
       </c>
       <c r="T19">
-        <v>9.393745745732131E-05</v>
+        <v>0.0001565592538178006</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.387740711516154</v>
+        <v>0.4491346666666667</v>
       </c>
       <c r="H20">
-        <v>0.387740711516154</v>
+        <v>1.347404</v>
       </c>
       <c r="I20">
-        <v>0.007558122498145594</v>
+        <v>0.00816312415756312</v>
       </c>
       <c r="J20">
-        <v>0.007558122498145594</v>
+        <v>0.00816312415756312</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>200.098458342395</v>
+        <v>260.05794</v>
       </c>
       <c r="N20">
-        <v>200.098458342395</v>
+        <v>780.17382</v>
       </c>
       <c r="O20">
-        <v>0.9050577646396665</v>
+        <v>0.9183237679872462</v>
       </c>
       <c r="P20">
-        <v>0.9050577646396665</v>
+        <v>0.9183237679872462</v>
       </c>
       <c r="Q20">
-        <v>77.58631861096573</v>
+        <v>116.80103619592</v>
       </c>
       <c r="R20">
-        <v>77.58631861096573</v>
+        <v>1051.20932576328</v>
       </c>
       <c r="S20">
-        <v>0.006840537453044423</v>
+        <v>0.007496390934921079</v>
       </c>
       <c r="T20">
-        <v>0.006840537453044423</v>
+        <v>0.007496390934921079</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.387740711516154</v>
+        <v>0.4491346666666667</v>
       </c>
       <c r="H21">
-        <v>0.387740711516154</v>
+        <v>1.347404</v>
       </c>
       <c r="I21">
-        <v>0.007558122498145594</v>
+        <v>0.00816312415756312</v>
       </c>
       <c r="J21">
-        <v>0.007558122498145594</v>
+        <v>0.00816312415756312</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.27784798767248</v>
+        <v>3.298516</v>
       </c>
       <c r="N21">
-        <v>3.27784798767248</v>
+        <v>9.895548</v>
       </c>
       <c r="O21">
-        <v>0.01482591019004837</v>
+        <v>0.011647810645144</v>
       </c>
       <c r="P21">
-        <v>0.01482591019004837</v>
+        <v>0.011647810645144</v>
       </c>
       <c r="Q21">
-        <v>1.270955110981921</v>
+        <v>1.481477884154667</v>
       </c>
       <c r="R21">
-        <v>1.270955110981921</v>
+        <v>13.333300957392</v>
       </c>
       <c r="S21">
-        <v>0.0001120560453628906</v>
+        <v>9.508252446009586E-05</v>
       </c>
       <c r="T21">
-        <v>0.0001120560453628906</v>
+        <v>9.508252446009584E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.387740711516154</v>
+        <v>0.4491346666666667</v>
       </c>
       <c r="H22">
-        <v>0.387740711516154</v>
+        <v>1.347404</v>
       </c>
       <c r="I22">
-        <v>0.007558122498145594</v>
+        <v>0.00816312415756312</v>
       </c>
       <c r="J22">
-        <v>0.007558122498145594</v>
+        <v>0.00816312415756312</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.39559791983389</v>
+        <v>5.199381666666667</v>
       </c>
       <c r="N22">
-        <v>4.39559791983389</v>
+        <v>15.598145</v>
       </c>
       <c r="O22">
-        <v>0.01988156260940442</v>
+        <v>0.01836019989751954</v>
       </c>
       <c r="P22">
-        <v>0.01988156260940442</v>
+        <v>0.01836019989751954</v>
       </c>
       <c r="Q22">
-        <v>1.704352264975319</v>
+        <v>2.335222551731111</v>
       </c>
       <c r="R22">
-        <v>1.704352264975319</v>
+        <v>21.01700296558</v>
       </c>
       <c r="S22">
-        <v>0.0001502672856564298</v>
+        <v>0.0001498765913211297</v>
       </c>
       <c r="T22">
-        <v>0.0001502672856564298</v>
+        <v>0.0001498765913211297</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.387740711516154</v>
+        <v>0.4491346666666667</v>
       </c>
       <c r="H23">
-        <v>0.387740711516154</v>
+        <v>1.347404</v>
       </c>
       <c r="I23">
-        <v>0.007558122498145594</v>
+        <v>0.00816312415756312</v>
       </c>
       <c r="J23">
-        <v>0.007558122498145594</v>
+        <v>0.00816312415756312</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.9502827539055</v>
+        <v>5.482828</v>
       </c>
       <c r="N23">
-        <v>4.9502827539055</v>
+        <v>16.448484</v>
       </c>
       <c r="O23">
-        <v>0.0223904365915585</v>
+        <v>0.01936111340490499</v>
       </c>
       <c r="P23">
-        <v>0.0223904365915585</v>
+        <v>0.01936111340490499</v>
       </c>
       <c r="Q23">
-        <v>1.919426157205465</v>
+        <v>2.462528126170667</v>
       </c>
       <c r="R23">
-        <v>1.919426157205465</v>
+        <v>22.162753135536</v>
       </c>
       <c r="S23">
-        <v>0.0001692296625459606</v>
+        <v>0.0001580471725528991</v>
       </c>
       <c r="T23">
-        <v>0.0001692296625459606</v>
+        <v>0.0001580471725528991</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.387740711516154</v>
+        <v>0.4491346666666667</v>
       </c>
       <c r="H24">
-        <v>0.387740711516154</v>
+        <v>1.347404</v>
       </c>
       <c r="I24">
-        <v>0.007558122498145594</v>
+        <v>0.00816312415756312</v>
       </c>
       <c r="J24">
-        <v>0.007558122498145594</v>
+        <v>0.00816312415756312</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.49587591863598</v>
+        <v>5.580850666666667</v>
       </c>
       <c r="N24">
-        <v>5.49587591863598</v>
+        <v>16.742552</v>
       </c>
       <c r="O24">
-        <v>0.02485818838817005</v>
+        <v>0.01970725374809732</v>
       </c>
       <c r="P24">
-        <v>0.02485818838817005</v>
+        <v>0.01970725374809732</v>
       </c>
       <c r="Q24">
-        <v>2.130974839096411</v>
+        <v>2.506553503889778</v>
       </c>
       <c r="R24">
-        <v>2.130974839096411</v>
+        <v>22.558981535008</v>
       </c>
       <c r="S24">
-        <v>0.0001878812329197696</v>
+        <v>0.0001608727591503196</v>
       </c>
       <c r="T24">
-        <v>0.0001878812329197696</v>
+        <v>0.0001608727591503196</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.387740711516154</v>
+        <v>0.4491346666666667</v>
       </c>
       <c r="H25">
-        <v>0.387740711516154</v>
+        <v>1.347404</v>
       </c>
       <c r="I25">
-        <v>0.007558122498145594</v>
+        <v>0.00816312415756312</v>
       </c>
       <c r="J25">
-        <v>0.007558122498145594</v>
+        <v>0.00816312415756312</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.87109421225211</v>
+        <v>3.568123</v>
       </c>
       <c r="N25">
-        <v>2.87109421225211</v>
+        <v>10.704369</v>
       </c>
       <c r="O25">
-        <v>0.01298613758115212</v>
+        <v>0.01259985431708779</v>
       </c>
       <c r="P25">
-        <v>0.01298613758115212</v>
+        <v>0.01259985431708779</v>
       </c>
       <c r="Q25">
-        <v>1.113240112688545</v>
+        <v>1.602567734230667</v>
       </c>
       <c r="R25">
-        <v>1.113240112688545</v>
+        <v>14.423109608076</v>
       </c>
       <c r="S25">
-        <v>9.815081861611988E-05</v>
+        <v>0.0001028541751575953</v>
       </c>
       <c r="T25">
-        <v>9.815081861611988E-05</v>
+        <v>0.0001028541751575953</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.616499757877066</v>
+        <v>0.6568320000000001</v>
       </c>
       <c r="H26">
-        <v>0.616499757877066</v>
+        <v>1.970496</v>
       </c>
       <c r="I26">
-        <v>0.01201725934811423</v>
+        <v>0.01193807017047708</v>
       </c>
       <c r="J26">
-        <v>0.01201725934811423</v>
+        <v>0.01193807017047708</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>200.098458342395</v>
+        <v>260.05794</v>
       </c>
       <c r="N26">
-        <v>200.098458342395</v>
+        <v>780.17382</v>
       </c>
       <c r="O26">
-        <v>0.9050577646396665</v>
+        <v>0.9183237679872462</v>
       </c>
       <c r="P26">
-        <v>0.9050577646396665</v>
+        <v>0.9183237679872462</v>
       </c>
       <c r="Q26">
-        <v>123.3606511196607</v>
+        <v>170.81437684608</v>
       </c>
       <c r="R26">
-        <v>123.3606511196607</v>
+        <v>1537.32939161472</v>
       </c>
       <c r="S26">
-        <v>0.0108763138826994</v>
+        <v>0.01096301358144866</v>
       </c>
       <c r="T26">
-        <v>0.0108763138826994</v>
+        <v>0.01096301358144866</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.616499757877066</v>
+        <v>0.6568320000000001</v>
       </c>
       <c r="H27">
-        <v>0.616499757877066</v>
+        <v>1.970496</v>
       </c>
       <c r="I27">
-        <v>0.01201725934811423</v>
+        <v>0.01193807017047708</v>
       </c>
       <c r="J27">
-        <v>0.01201725934811423</v>
+        <v>0.01193807017047708</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>3.27784798767248</v>
+        <v>3.298516</v>
       </c>
       <c r="N27">
-        <v>3.27784798767248</v>
+        <v>9.895548</v>
       </c>
       <c r="O27">
-        <v>0.01482591019004837</v>
+        <v>0.011647810645144</v>
       </c>
       <c r="P27">
-        <v>0.01482591019004837</v>
+        <v>0.011647810645144</v>
       </c>
       <c r="Q27">
-        <v>2.020792490757912</v>
+        <v>2.166570861312</v>
       </c>
       <c r="R27">
-        <v>2.020792490757912</v>
+        <v>19.499137751808</v>
       </c>
       <c r="S27">
-        <v>0.0001781668078256608</v>
+        <v>0.000139052380814159</v>
       </c>
       <c r="T27">
-        <v>0.0001781668078256608</v>
+        <v>0.000139052380814159</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.616499757877066</v>
+        <v>0.6568320000000001</v>
       </c>
       <c r="H28">
-        <v>0.616499757877066</v>
+        <v>1.970496</v>
       </c>
       <c r="I28">
-        <v>0.01201725934811423</v>
+        <v>0.01193807017047708</v>
       </c>
       <c r="J28">
-        <v>0.01201725934811423</v>
+        <v>0.01193807017047708</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>4.39559791983389</v>
+        <v>5.199381666666667</v>
       </c>
       <c r="N28">
-        <v>4.39559791983389</v>
+        <v>15.598145</v>
       </c>
       <c r="O28">
-        <v>0.01988156260940442</v>
+        <v>0.01836019989751954</v>
       </c>
       <c r="P28">
-        <v>0.01988156260940442</v>
+        <v>0.01836019989751954</v>
       </c>
       <c r="Q28">
-        <v>2.709885053302528</v>
+        <v>3.41512025888</v>
       </c>
       <c r="R28">
-        <v>2.709885053302528</v>
+        <v>30.73608232992001</v>
       </c>
       <c r="S28">
-        <v>0.0002389218941229836</v>
+        <v>0.0002191853547205744</v>
       </c>
       <c r="T28">
-        <v>0.0002389218941229836</v>
+        <v>0.0002191853547205744</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.616499757877066</v>
+        <v>0.6568320000000001</v>
       </c>
       <c r="H29">
-        <v>0.616499757877066</v>
+        <v>1.970496</v>
       </c>
       <c r="I29">
-        <v>0.01201725934811423</v>
+        <v>0.01193807017047708</v>
       </c>
       <c r="J29">
-        <v>0.01201725934811423</v>
+        <v>0.01193807017047708</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.9502827539055</v>
+        <v>5.482828</v>
       </c>
       <c r="N29">
-        <v>4.9502827539055</v>
+        <v>16.448484</v>
       </c>
       <c r="O29">
-        <v>0.0223904365915585</v>
+        <v>0.01936111340490499</v>
       </c>
       <c r="P29">
-        <v>0.0223904365915585</v>
+        <v>0.01936111340490499</v>
       </c>
       <c r="Q29">
-        <v>3.051848119205756</v>
+        <v>3.601296880896001</v>
       </c>
       <c r="R29">
-        <v>3.051848119205756</v>
+        <v>32.411671928064</v>
       </c>
       <c r="S29">
-        <v>0.0002690716834382652</v>
+        <v>0.0002311343304063203</v>
       </c>
       <c r="T29">
-        <v>0.0002690716834382652</v>
+        <v>0.0002311343304063202</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.616499757877066</v>
+        <v>0.6568320000000001</v>
       </c>
       <c r="H30">
-        <v>0.616499757877066</v>
+        <v>1.970496</v>
       </c>
       <c r="I30">
-        <v>0.01201725934811423</v>
+        <v>0.01193807017047708</v>
       </c>
       <c r="J30">
-        <v>0.01201725934811423</v>
+        <v>0.01193807017047708</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.49587591863598</v>
+        <v>5.580850666666667</v>
       </c>
       <c r="N30">
-        <v>5.49587591863598</v>
+        <v>16.742552</v>
       </c>
       <c r="O30">
-        <v>0.02485818838817005</v>
+        <v>0.01970725374809732</v>
       </c>
       <c r="P30">
-        <v>0.02485818838817005</v>
+        <v>0.01970725374809732</v>
       </c>
       <c r="Q30">
-        <v>3.388206173161479</v>
+        <v>3.665681305088</v>
       </c>
       <c r="R30">
-        <v>3.388206173161479</v>
+        <v>32.991131745792</v>
       </c>
       <c r="S30">
-        <v>0.0002987272967849211</v>
+        <v>0.0002352665781121833</v>
       </c>
       <c r="T30">
-        <v>0.0002987272967849211</v>
+        <v>0.0002352665781121833</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.616499757877066</v>
+        <v>0.6568320000000001</v>
       </c>
       <c r="H31">
-        <v>0.616499757877066</v>
+        <v>1.970496</v>
       </c>
       <c r="I31">
-        <v>0.01201725934811423</v>
+        <v>0.01193807017047708</v>
       </c>
       <c r="J31">
-        <v>0.01201725934811423</v>
+        <v>0.01193807017047708</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.87109421225211</v>
+        <v>3.568123</v>
       </c>
       <c r="N31">
-        <v>2.87109421225211</v>
+        <v>10.704369</v>
       </c>
       <c r="O31">
-        <v>0.01298613758115212</v>
+        <v>0.01259985431708779</v>
       </c>
       <c r="P31">
-        <v>0.01298613758115212</v>
+        <v>0.01259985431708779</v>
       </c>
       <c r="Q31">
-        <v>1.770028886695671</v>
+        <v>2.343657366336</v>
       </c>
       <c r="R31">
-        <v>1.770028886695671</v>
+        <v>21.092916297024</v>
       </c>
       <c r="S31">
-        <v>0.0001560577832429979</v>
+        <v>0.0001504179449751826</v>
       </c>
       <c r="T31">
-        <v>0.0001560577832429979</v>
+        <v>0.0001504179449751826</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>9.52861740667934</v>
+        <v>9.899486</v>
       </c>
       <c r="H32">
-        <v>9.52861740667934</v>
+        <v>29.698458</v>
       </c>
       <c r="I32">
-        <v>0.1857387049093616</v>
+        <v>0.1799253972395612</v>
       </c>
       <c r="J32">
-        <v>0.1857387049093616</v>
+        <v>0.1799253972395612</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>200.098458342395</v>
+        <v>260.05794</v>
       </c>
       <c r="N32">
-        <v>200.098458342395</v>
+        <v>780.17382</v>
       </c>
       <c r="O32">
-        <v>0.9050577646396665</v>
+        <v>0.9183237679872462</v>
       </c>
       <c r="P32">
-        <v>0.9050577646396665</v>
+        <v>0.9183237679872462</v>
       </c>
       <c r="Q32">
-        <v>1906.661653211046</v>
+        <v>2574.43993621884</v>
       </c>
       <c r="R32">
-        <v>1906.661653211046</v>
+        <v>23169.95942596956</v>
       </c>
       <c r="S32">
-        <v>0.1681042570723335</v>
+        <v>0.1652297687496359</v>
       </c>
       <c r="T32">
-        <v>0.1681042570723335</v>
+        <v>0.1652297687496359</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>9.52861740667934</v>
+        <v>9.899486</v>
       </c>
       <c r="H33">
-        <v>9.52861740667934</v>
+        <v>29.698458</v>
       </c>
       <c r="I33">
-        <v>0.1857387049093616</v>
+        <v>0.1799253972395612</v>
       </c>
       <c r="J33">
-        <v>0.1857387049093616</v>
+        <v>0.1799253972395612</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>3.27784798767248</v>
+        <v>3.298516</v>
       </c>
       <c r="N33">
-        <v>3.27784798767248</v>
+        <v>9.895548</v>
       </c>
       <c r="O33">
-        <v>0.01482591019004837</v>
+        <v>0.011647810645144</v>
       </c>
       <c r="P33">
-        <v>0.01482591019004837</v>
+        <v>0.011647810645144</v>
       </c>
       <c r="Q33">
-        <v>31.23335939178484</v>
+        <v>32.65361296277599</v>
       </c>
       <c r="R33">
-        <v>31.23335939178484</v>
+        <v>293.882516664984</v>
       </c>
       <c r="S33">
-        <v>0.002753745357802092</v>
+        <v>0.002095736957298724</v>
       </c>
       <c r="T33">
-        <v>0.002753745357802092</v>
+        <v>0.002095736957298723</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>9.52861740667934</v>
+        <v>9.899486</v>
       </c>
       <c r="H34">
-        <v>9.52861740667934</v>
+        <v>29.698458</v>
       </c>
       <c r="I34">
-        <v>0.1857387049093616</v>
+        <v>0.1799253972395612</v>
       </c>
       <c r="J34">
-        <v>0.1857387049093616</v>
+        <v>0.1799253972395612</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>4.39559791983389</v>
+        <v>5.199381666666667</v>
       </c>
       <c r="N34">
-        <v>4.39559791983389</v>
+        <v>15.598145</v>
       </c>
       <c r="O34">
-        <v>0.01988156260940442</v>
+        <v>0.01836019989751954</v>
       </c>
       <c r="P34">
-        <v>0.01988156260940442</v>
+        <v>0.01836019989751954</v>
       </c>
       <c r="Q34">
-        <v>41.8839708516927</v>
+        <v>51.47120601782333</v>
       </c>
       <c r="R34">
-        <v>41.8839708516927</v>
+        <v>463.24085416041</v>
       </c>
       <c r="S34">
-        <v>0.003692775690645165</v>
+        <v>0.003303466259958954</v>
       </c>
       <c r="T34">
-        <v>0.003692775690645165</v>
+        <v>0.003303466259958954</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>9.52861740667934</v>
+        <v>9.899486</v>
       </c>
       <c r="H35">
-        <v>9.52861740667934</v>
+        <v>29.698458</v>
       </c>
       <c r="I35">
-        <v>0.1857387049093616</v>
+        <v>0.1799253972395612</v>
       </c>
       <c r="J35">
-        <v>0.1857387049093616</v>
+        <v>0.1799253972395612</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.9502827539055</v>
+        <v>5.482828</v>
       </c>
       <c r="N35">
-        <v>4.9502827539055</v>
+        <v>16.448484</v>
       </c>
       <c r="O35">
-        <v>0.0223904365915585</v>
+        <v>0.01936111340490499</v>
       </c>
       <c r="P35">
-        <v>0.0223904365915585</v>
+        <v>0.01936111340490499</v>
       </c>
       <c r="Q35">
-        <v>47.16935041684849</v>
+        <v>54.277179026408</v>
       </c>
       <c r="R35">
-        <v>47.16935041684849</v>
+        <v>488.494611237672</v>
       </c>
       <c r="S35">
-        <v>0.004158770694871255</v>
+        <v>0.003483556020377724</v>
       </c>
       <c r="T35">
-        <v>0.004158770694871255</v>
+        <v>0.003483556020377723</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>9.52861740667934</v>
+        <v>9.899486</v>
       </c>
       <c r="H36">
-        <v>9.52861740667934</v>
+        <v>29.698458</v>
       </c>
       <c r="I36">
-        <v>0.1857387049093616</v>
+        <v>0.1799253972395612</v>
       </c>
       <c r="J36">
-        <v>0.1857387049093616</v>
+        <v>0.1799253972395612</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>5.49587591863598</v>
+        <v>5.580850666666667</v>
       </c>
       <c r="N36">
-        <v>5.49587591863598</v>
+        <v>16.742552</v>
       </c>
       <c r="O36">
-        <v>0.02485818838817005</v>
+        <v>0.01970725374809732</v>
       </c>
       <c r="P36">
-        <v>0.02485818838817005</v>
+        <v>0.01970725374809732</v>
       </c>
       <c r="Q36">
-        <v>52.3680989432646</v>
+        <v>55.24755304275733</v>
       </c>
       <c r="R36">
-        <v>52.3680989432646</v>
+        <v>497.227977384816</v>
       </c>
       <c r="S36">
-        <v>0.004617127717611636</v>
+        <v>0.003545835459127243</v>
       </c>
       <c r="T36">
-        <v>0.004617127717611636</v>
+        <v>0.003545835459127242</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>9.52861740667934</v>
+        <v>9.899486</v>
       </c>
       <c r="H37">
-        <v>9.52861740667934</v>
+        <v>29.698458</v>
       </c>
       <c r="I37">
-        <v>0.1857387049093616</v>
+        <v>0.1799253972395612</v>
       </c>
       <c r="J37">
-        <v>0.1857387049093616</v>
+        <v>0.1799253972395612</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.87109421225211</v>
+        <v>3.568123</v>
       </c>
       <c r="N37">
-        <v>2.87109421225211</v>
+        <v>10.704369</v>
       </c>
       <c r="O37">
-        <v>0.01298613758115212</v>
+        <v>0.01259985431708779</v>
       </c>
       <c r="P37">
-        <v>0.01298613758115212</v>
+        <v>0.01259985431708779</v>
       </c>
       <c r="Q37">
-        <v>27.35755828708176</v>
+        <v>35.322583684778</v>
       </c>
       <c r="R37">
-        <v>27.35755828708176</v>
+        <v>317.903253163002</v>
       </c>
       <c r="S37">
-        <v>0.002412028376097985</v>
+        <v>0.002267033793162621</v>
       </c>
       <c r="T37">
-        <v>0.002412028376097985</v>
+        <v>0.002267033793162621</v>
       </c>
     </row>
   </sheetData>
